--- a/src/TechData_GHGRAW.xlsx
+++ b/src/TechData_GHGRAW.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\bensimheat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\BENOPT-HEAT (SmartWirbelschicht)\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="525" windowWidth="10125" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="525" windowWidth="10125" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="HaushalteIndustrie" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="dataset65metaInformation" localSheetId="0">HaushalteIndustrie!#REF!</definedName>
     <definedName name="Pellet_THG" localSheetId="1">[1]HaushalteIndustrie!$D$56:$D$57</definedName>
-    <definedName name="Pellet_THG">HaushalteIndustrie!$D$57:$D$58</definedName>
+    <definedName name="Pellet_THG">HaushalteIndustrie!$D$62:$D$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -32,6 +32,7 @@
   <authors>
     <author>Katja Oehmichen</author>
     <author>Matthias Jordan</author>
+    <author>Matthias Jordan martinm</author>
   </authors>
   <commentList>
     <comment ref="E4" authorId="0" shapeId="0">
@@ -1591,7 +1592,127 @@
         </r>
       </text>
     </comment>
-    <comment ref="I52" authorId="0" shapeId="0">
+    <comment ref="I52" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Jordan martinm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entspricht Pelletkessel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I53" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Jordan martinm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entspricht Pelletkessel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Jordan martinm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entspricht Pelletkessel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I55" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Jordan martinm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entspricht Pelletkessel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I56" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Jordan martinm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entspricht Pelletkessel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2115,7 +2236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="1" shapeId="0">
+    <comment ref="D38" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2145,7 +2266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>Emissionen in gCO2-Äq.</t>
   </si>
@@ -2363,9 +2484,6 @@
   </si>
   <si>
     <t>Tech</t>
-  </si>
-  <si>
-    <t>Techtype</t>
   </si>
   <si>
     <t xml:space="preserve">1 2 3 5 </t>
@@ -2603,6 +2721,36 @@
   <si>
     <t>Laugen-Kessel</t>
   </si>
+  <si>
+    <t>Hay pellet</t>
+  </si>
+  <si>
+    <t>Foliage briquette</t>
+  </si>
+  <si>
+    <t>GHGTechtype</t>
+  </si>
+  <si>
+    <t>49 50 51</t>
+  </si>
+  <si>
+    <t>52 53</t>
+  </si>
+  <si>
+    <t>SmartWirbelschicht Bio</t>
+  </si>
+  <si>
+    <t>SmartWirbelschicht Gas</t>
+  </si>
+  <si>
+    <t>SWCHP250</t>
+  </si>
+  <si>
+    <t>SWORC250</t>
+  </si>
+  <si>
+    <t>SWSTIR250</t>
+  </si>
 </sst>
 </file>
 
@@ -2612,7 +2760,7 @@
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2670,6 +2818,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3080,14 +3241,14 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40 % - Akzent2" xfId="2" builtinId="35"/>
@@ -3114,7 +3275,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>982133</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>24340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3663950" cy="572657"/>
@@ -3311,7 +3472,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1007533</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>70907</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3663950" cy="412036"/>
@@ -3814,17 +3975,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:C51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9" style="56" customWidth="1"/>
+    <col min="2" max="2" width="13" style="56" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
@@ -3910,7 +4071,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="30" t="s">
@@ -3958,7 +4119,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="83">
         <v>5</v>
@@ -4005,12 +4166,12 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="83">
         <v>3</v>
@@ -4081,12 +4242,12 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="83">
         <v>6</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="113" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="12">
@@ -4130,14 +4291,14 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="Q10" s="12">
-        <f>(1-(1-(1/((O10/$K$59)+(N10/$K$60)))))*(O10/$K$59)</f>
+        <f>(1-(1-(1/((O10/$K$64)+(N10/$K$65)))))*(O10/$K$64)</f>
         <v>0.30434782608695654</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="82"/>
-      <c r="C11" s="110"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4158,7 +4319,7 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="82"/>
-      <c r="C12" s="110"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4178,7 +4339,7 @@
     </row>
     <row r="13" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="83">
         <v>2</v>
@@ -4271,7 +4432,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="83">
         <v>1</v>
@@ -4318,7 +4479,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="83">
         <v>1</v>
@@ -4365,7 +4526,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="83">
         <v>1</v>
@@ -4409,7 +4570,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="83">
         <v>4</v>
@@ -4510,7 +4671,7 @@
     </row>
     <row r="21" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="83">
         <v>1</v>
@@ -4553,7 +4714,7 @@
         <v>0.11111111111111112</v>
       </c>
       <c r="Q21" s="12">
-        <f>(1-(1-(1/((O21/$K$59)+(N21/$K$60)))))*(O21/$K$59)</f>
+        <f>(1-(1-(1/((O21/$K$64)+(N21/$K$65)))))*(O21/$K$64)</f>
         <v>0.59322033898305093</v>
       </c>
       <c r="R21" s="37" t="s">
@@ -4775,7 +4936,7 @@
         <v>0.38888888888888884</v>
       </c>
       <c r="Q27" s="75">
-        <f>(1-(1-(1/((O27/$K$59)+(N27/$K$60)))))*(O27/$K$59)</f>
+        <f>(1-(1-(1/((O27/$K$64)+(N27/$K$65)))))*(O27/$K$64)</f>
         <v>0.29411764705882354</v>
       </c>
       <c r="R27" s="37" t="s">
@@ -4811,7 +4972,7 @@
         <v>0.10683760683760685</v>
       </c>
       <c r="Q28" s="75">
-        <f>(1-(1-(1/((O28/$K$59)+(N28/$K$60)))))*(O28/$K$59)</f>
+        <f>(1-(1-(1/((O28/$K$64)+(N28/$K$65)))))*(O28/$K$64)</f>
         <v>0.60264900662251653</v>
       </c>
       <c r="R28" t="s">
@@ -4826,7 +4987,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="38">
         <v>223</v>
@@ -4867,7 +5028,7 @@
         <v>0.18912529550827423</v>
       </c>
       <c r="Q29" s="75">
-        <f>(1-(1-(1/((O29/$K$59)+(N29/$K$60)))))*(O29/$K$59)</f>
+        <f>(1-(1-(1/((O29/$K$64)+(N29/$K$65)))))*(O29/$K$64)</f>
         <v>0.46143057503506318</v>
       </c>
     </row>
@@ -4918,7 +5079,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
@@ -4975,7 +5136,7 @@
         <v>0.1984126984126984</v>
       </c>
       <c r="Q32" s="75">
-        <f t="shared" ref="Q32" si="4">(1-(1-(1/((O32/$K$59)+(N32/$K$60)))))*(O32/$K$59)</f>
+        <f t="shared" ref="Q32" si="4">(1-(1-(1/((O32/$K$64)+(N32/$K$65)))))*(O32/$K$64)</f>
         <v>0.44954128440366981</v>
       </c>
       <c r="R32" t="s">
@@ -5079,7 +5240,7 @@
         <v>1.0912698412698412</v>
       </c>
       <c r="Q34" s="75">
-        <f>(1-(1-(1/((O34/$K$59)+(N34/$K$60)))))*(O34/$K$59)</f>
+        <f>(1-(1-(1/((O34/$K$64)+(N34/$K$65)))))*(O34/$K$64)</f>
         <v>0.12928759894459099</v>
       </c>
     </row>
@@ -5123,7 +5284,7 @@
         <v>1.0912698412698412</v>
       </c>
       <c r="Q35" s="75">
-        <f>(1-(1-(1/((O35/$K$59)+(N35/$K$60)))))*(O35/$K$59)</f>
+        <f>(1-(1-(1/((O35/$K$64)+(N35/$K$65)))))*(O35/$K$64)</f>
         <v>0.12928759894459099</v>
       </c>
     </row>
@@ -5160,7 +5321,7 @@
         <v>1.0683760683760684</v>
       </c>
       <c r="Q36" s="75">
-        <f>(1-(1-(1/((O36/$K$59)+(N36/$K$60)))))*(O36/$K$59)</f>
+        <f>(1-(1-(1/((O36/$K$64)+(N36/$K$65)))))*(O36/$K$64)</f>
         <v>0.13169319826338641</v>
       </c>
     </row>
@@ -5341,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
@@ -5368,7 +5529,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I43" s="91">
         <v>0.11355999999999999</v>
@@ -5385,11 +5546,11 @@
         <v>1.0555555555555556</v>
       </c>
       <c r="Q43" s="75">
-        <f t="shared" ref="Q43:Q46" si="7">(1-(1-(1/((O43/$K$59)+(N43/$K$60)))))*(O43/$K$59)</f>
+        <f t="shared" ref="Q43:Q46" si="7">(1-(1-(1/((O43/$K$64)+(N43/$K$65)))))*(O43/$K$64)</f>
         <v>0.13307984790874525</v>
       </c>
       <c r="R43" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -5400,7 +5561,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -5434,7 +5595,7 @@
         <v>0.33793103448275863</v>
       </c>
       <c r="R44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -5445,7 +5606,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I45" s="94">
         <v>0.11355999999999999</v>
@@ -5474,7 +5635,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I46" s="91">
         <v>1.1399999999999999</v>
@@ -5503,7 +5664,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="90"/>
       <c r="E47" s="90"/>
@@ -5528,11 +5689,11 @@
         <v>9.2592592592592587E-2</v>
       </c>
       <c r="Q47" s="75">
-        <f>(1-(1-(1/((O47/$K$59)+(N47/$K$60)))))*(O47/$K$59)</f>
+        <f>(1-(1-(1/((O47/$K$64)+(N47/$K$65)))))*(O47/$K$64)</f>
         <v>0.63636363636363646</v>
       </c>
       <c r="R47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -5543,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -5555,10 +5716,10 @@
       </c>
       <c r="M48" s="80"/>
       <c r="R48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="82">
         <v>46</v>
       </c>
@@ -5566,13 +5727,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I49" s="96">
         <v>24.4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="82">
         <v>47</v>
       </c>
@@ -5580,83 +5741,167 @@
         <v>1</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I50" s="96">
         <f>26.42/0.1</f>
         <v>264.2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="100">
         <v>48</v>
       </c>
-      <c r="B51" s="112">
+      <c r="B51" s="111">
         <v>1</v>
       </c>
-      <c r="C51" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="111">
+      <c r="C51" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" s="110">
         <v>0.11</v>
       </c>
       <c r="K51" s="32"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="I52" s="62">
+    <row r="52" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="111">
+        <v>1</v>
+      </c>
+      <c r="C52" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="110">
+        <v>1.72</v>
+      </c>
+      <c r="K52" s="32"/>
+    </row>
+    <row r="53" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="111">
+        <v>5</v>
+      </c>
+      <c r="C53" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" s="110">
+        <v>1.72</v>
+      </c>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="100">
+        <v>54</v>
+      </c>
+      <c r="B54" s="111">
+        <v>1</v>
+      </c>
+      <c r="C54" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" s="110">
+        <v>1.72</v>
+      </c>
+      <c r="K54" s="32"/>
+      <c r="Q54" s="106">
+        <v>0.60577150516439338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="100">
+        <v>55</v>
+      </c>
+      <c r="B55" s="111">
+        <v>1</v>
+      </c>
+      <c r="C55" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="110">
+        <v>1.72</v>
+      </c>
+      <c r="K55" s="32"/>
+      <c r="Q55" s="106">
+        <v>0.69741898393294799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="100">
+        <v>56</v>
+      </c>
+      <c r="B56" s="111">
+        <v>1</v>
+      </c>
+      <c r="C56" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" s="110">
+        <v>1.72</v>
+      </c>
+      <c r="K56" s="32"/>
+      <c r="Q56" s="106">
+        <v>0.65055125539461511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C57" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="62">
         <v>1.74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>33</v>
       </c>
-      <c r="D57">
+      <c r="D62">
         <v>13.8</v>
       </c>
-      <c r="E57" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="E62" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>34</v>
       </c>
-      <c r="D58">
+      <c r="D63">
         <v>10.4</v>
       </c>
-      <c r="E58" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E59" s="10"/>
-      <c r="J59" t="s">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="J64" t="s">
         <v>44</v>
       </c>
-      <c r="K59" s="32">
+      <c r="K64" s="32">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J60" t="s">
+    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
         <v>45</v>
       </c>
-      <c r="K60" s="32">
+      <c r="K65" s="32">
         <v>52.5</v>
       </c>
     </row>
@@ -5678,10 +5923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:P43"/>
+  <dimension ref="B7:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5703,25 +5948,25 @@
   <sheetData>
     <row r="7" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="F7" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="G7" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="H7" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="97"/>
       <c r="C8" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -5729,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="86">
         <v>1.36</v>
@@ -5744,7 +5989,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="100">
         <v>7.94</v>
@@ -5759,7 +6004,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="86">
         <v>7.94</v>
@@ -5777,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="86">
         <v>7.94</v>
@@ -5792,7 +6037,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="86">
         <v>1.36</v>
@@ -5807,7 +6052,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="86">
         <v>1.36</v>
@@ -5822,7 +6067,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="86">
         <v>4.47</v>
@@ -5838,14 +6083,14 @@
         <v>13.8</v>
       </c>
       <c r="N15" s="82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O15" s="82">
         <f>M15*0.79</f>
         <v>10.902000000000001</v>
       </c>
       <c r="P15" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -5853,13 +6098,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="82">
         <v>11.8</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="100">
         <v>3</v>
@@ -5875,14 +6120,14 @@
         <v>10.4</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O16" s="82">
         <f>M16*0.79</f>
         <v>8.2160000000000011</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -5890,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="82">
         <v>0</v>
@@ -5900,14 +6145,14 @@
         <v>0</v>
       </c>
       <c r="N17" s="102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O17" s="82">
         <f>O15-O16</f>
         <v>2.6859999999999999</v>
       </c>
       <c r="P17" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -5915,16 +6160,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="82">
         <v>29.53</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G18" s="100">
         <v>4.0199999999999996</v>
@@ -5938,7 +6183,7 @@
         <v>2.6860000000000005E-3</v>
       </c>
       <c r="P18" s="82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -5946,17 +6191,17 @@
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="82">
         <f>17.8*1.1</f>
         <v>19.580000000000002</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="100">
         <v>2.72</v>
@@ -5971,13 +6216,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="86">
         <v>3.8260000000000001</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="32">
@@ -5990,7 +6235,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="100">
         <v>8.25</v>
@@ -6006,13 +6251,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="86">
         <v>8.25</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="32">
@@ -6025,13 +6270,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="86">
         <v>4.0999999999999996</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="86"/>
       <c r="H23" s="32">
@@ -6044,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="100">
         <v>8.5299999999999994</v>
@@ -6060,13 +6305,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="86">
         <v>8.5299999999999994</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" s="86"/>
       <c r="H25" s="32">
@@ -6079,16 +6324,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="82">
         <v>13.7</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26" s="100">
         <v>2.6</v>
@@ -6103,16 +6348,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="82">
         <v>56.5</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27" s="100">
         <v>3.81</v>
@@ -6127,16 +6372,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="82">
         <v>46.4</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28" s="100">
         <v>2.88</v>
@@ -6151,16 +6396,16 @@
         <v>21</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="82">
         <v>55</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29" s="100">
         <v>3.57</v>
@@ -6175,13 +6420,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="82">
         <v>55.06</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="100">
         <v>11.52</v>
@@ -6196,16 +6441,16 @@
         <v>23</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="82">
         <v>47.3</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="100">
         <v>3.92</v>
@@ -6220,7 +6465,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="107">
         <v>59.6</v>
@@ -6235,7 +6480,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="107">
         <v>108</v>
@@ -6250,13 +6495,13 @@
         <v>26</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="106">
         <v>478</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G34" s="100">
         <v>8</v>
@@ -6266,66 +6511,96 @@
         <v>59.75</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="99">
         <v>27</v>
       </c>
       <c r="C35" s="78" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D35" s="106">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+      <c r="G35" s="100"/>
+      <c r="H35" s="32">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="99">
         <v>28</v>
       </c>
-      <c r="C36" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="107">
-        <v>123</v>
-      </c>
-      <c r="H36" s="82">
-        <f>D36</f>
-        <v>123</v>
+      <c r="C36" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="106">
+        <v>7.8</v>
+      </c>
+      <c r="G36" s="100"/>
+      <c r="H36" s="32">
+        <v>7.8</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="99">
         <v>29</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="106">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="99">
+        <v>30</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="107">
+        <v>123</v>
+      </c>
+      <c r="H38" s="82">
+        <f>D38</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="99">
+        <v>31</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="106">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="82">
+        <v>36</v>
+      </c>
+      <c r="H39" s="32">
+        <f t="shared" ref="H39" si="4">D39/G39</f>
+        <v>27.777777777777779</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="106">
-        <v>1000</v>
-      </c>
-      <c r="E37" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="82">
-        <v>36</v>
-      </c>
-      <c r="H37" s="32">
-        <f t="shared" ref="H37" si="4">D37/G37</f>
-        <v>27.777777777777779</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G38" s="82" t="s">
+      <c r="H40" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="H38" s="82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="32"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="86"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/TechData_GHGRAW.xlsx
+++ b/src/TechData_GHGRAW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\BENOPT-HEAT (SmartWirbelschicht)\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\BENOPT-HEAT (KonditorGas)\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="dataset65metaInformation" localSheetId="0">HaushalteIndustrie!#REF!</definedName>
     <definedName name="Pellet_THG" localSheetId="1">[1]HaushalteIndustrie!$D$56:$D$57</definedName>
-    <definedName name="Pellet_THG">HaushalteIndustrie!$D$62:$D$63</definedName>
+    <definedName name="Pellet_THG">HaushalteIndustrie!$D$63:$D$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1600,7 +1600,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Matthias Jordan martinm:</t>
         </r>
@@ -1609,7 +1609,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Entspricht Pelletkessel</t>
@@ -1624,7 +1624,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Matthias Jordan martinm:</t>
         </r>
@@ -1633,7 +1633,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Entspricht Pelletkessel</t>
@@ -1648,7 +1648,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Matthias Jordan martinm:</t>
         </r>
@@ -1657,7 +1657,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Entspricht Pelletkessel</t>
@@ -1672,7 +1672,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Matthias Jordan martinm:</t>
         </r>
@@ -1681,7 +1681,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Entspricht Pelletkessel</t>
@@ -1696,7 +1696,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Matthias Jordan martinm:</t>
         </r>
@@ -1705,14 +1705,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Entspricht Pelletkessel</t>
         </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="0" shapeId="0">
+    <comment ref="I58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2266,7 +2266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t>Emissionen in gCO2-Äq.</t>
   </si>
@@ -2750,6 +2750,12 @@
   </si>
   <si>
     <t>SWSTIR250</t>
+  </si>
+  <si>
+    <t>57 58</t>
+  </si>
+  <si>
+    <t>BM-D -Biomethan-Direktfeuerung HPR GobiGas</t>
   </si>
 </sst>
 </file>
@@ -2823,14 +2829,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3082,7 +3088,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3246,6 +3252,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3275,7 +3282,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>982133</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>24340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3663950" cy="572657"/>
@@ -3472,7 +3479,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1007533</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>70907</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3663950" cy="412036"/>
@@ -3975,11 +3982,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,7 +4254,7 @@
       <c r="B10" s="83">
         <v>6</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="114" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="12">
@@ -4291,14 +4298,14 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="Q10" s="12">
-        <f>(1-(1-(1/((O10/$K$64)+(N10/$K$65)))))*(O10/$K$64)</f>
+        <f>(1-(1-(1/((O10/$K$65)+(N10/$K$66)))))*(O10/$K$65)</f>
         <v>0.30434782608695654</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="82"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4319,7 +4326,7 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="82"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4714,7 +4721,7 @@
         <v>0.11111111111111112</v>
       </c>
       <c r="Q21" s="12">
-        <f>(1-(1-(1/((O21/$K$64)+(N21/$K$65)))))*(O21/$K$64)</f>
+        <f>(1-(1-(1/((O21/$K$65)+(N21/$K$66)))))*(O21/$K$65)</f>
         <v>0.59322033898305093</v>
       </c>
       <c r="R21" s="37" t="s">
@@ -4936,7 +4943,7 @@
         <v>0.38888888888888884</v>
       </c>
       <c r="Q27" s="75">
-        <f>(1-(1-(1/((O27/$K$64)+(N27/$K$65)))))*(O27/$K$64)</f>
+        <f>(1-(1-(1/((O27/$K$65)+(N27/$K$66)))))*(O27/$K$65)</f>
         <v>0.29411764705882354</v>
       </c>
       <c r="R27" s="37" t="s">
@@ -4972,7 +4979,7 @@
         <v>0.10683760683760685</v>
       </c>
       <c r="Q28" s="75">
-        <f>(1-(1-(1/((O28/$K$64)+(N28/$K$65)))))*(O28/$K$64)</f>
+        <f>(1-(1-(1/((O28/$K$65)+(N28/$K$66)))))*(O28/$K$65)</f>
         <v>0.60264900662251653</v>
       </c>
       <c r="R28" t="s">
@@ -5028,7 +5035,7 @@
         <v>0.18912529550827423</v>
       </c>
       <c r="Q29" s="75">
-        <f>(1-(1-(1/((O29/$K$64)+(N29/$K$65)))))*(O29/$K$64)</f>
+        <f>(1-(1-(1/((O29/$K$65)+(N29/$K$66)))))*(O29/$K$65)</f>
         <v>0.46143057503506318</v>
       </c>
     </row>
@@ -5136,7 +5143,7 @@
         <v>0.1984126984126984</v>
       </c>
       <c r="Q32" s="75">
-        <f t="shared" ref="Q32" si="4">(1-(1-(1/((O32/$K$64)+(N32/$K$65)))))*(O32/$K$64)</f>
+        <f t="shared" ref="Q32" si="4">(1-(1-(1/((O32/$K$65)+(N32/$K$66)))))*(O32/$K$65)</f>
         <v>0.44954128440366981</v>
       </c>
       <c r="R32" t="s">
@@ -5240,7 +5247,7 @@
         <v>1.0912698412698412</v>
       </c>
       <c r="Q34" s="75">
-        <f>(1-(1-(1/((O34/$K$64)+(N34/$K$65)))))*(O34/$K$64)</f>
+        <f>(1-(1-(1/((O34/$K$65)+(N34/$K$66)))))*(O34/$K$65)</f>
         <v>0.12928759894459099</v>
       </c>
     </row>
@@ -5284,7 +5291,7 @@
         <v>1.0912698412698412</v>
       </c>
       <c r="Q35" s="75">
-        <f>(1-(1-(1/((O35/$K$64)+(N35/$K$65)))))*(O35/$K$64)</f>
+        <f>(1-(1-(1/((O35/$K$65)+(N35/$K$66)))))*(O35/$K$65)</f>
         <v>0.12928759894459099</v>
       </c>
     </row>
@@ -5321,7 +5328,7 @@
         <v>1.0683760683760684</v>
       </c>
       <c r="Q36" s="75">
-        <f>(1-(1-(1/((O36/$K$64)+(N36/$K$65)))))*(O36/$K$64)</f>
+        <f>(1-(1-(1/((O36/$K$65)+(N36/$K$66)))))*(O36/$K$65)</f>
         <v>0.13169319826338641</v>
       </c>
     </row>
@@ -5546,7 +5553,7 @@
         <v>1.0555555555555556</v>
       </c>
       <c r="Q43" s="75">
-        <f t="shared" ref="Q43:Q46" si="7">(1-(1-(1/((O43/$K$64)+(N43/$K$65)))))*(O43/$K$64)</f>
+        <f t="shared" ref="Q43:Q46" si="7">(1-(1-(1/((O43/$K$65)+(N43/$K$66)))))*(O43/$K$65)</f>
         <v>0.13307984790874525</v>
       </c>
       <c r="R43" s="82" t="s">
@@ -5689,7 +5696,7 @@
         <v>9.2592592592592587E-2</v>
       </c>
       <c r="Q47" s="75">
-        <f>(1-(1-(1/((O47/$K$64)+(N47/$K$65)))))*(O47/$K$64)</f>
+        <f>(1-(1-(1/((O47/$K$65)+(N47/$K$66)))))*(O47/$K$65)</f>
         <v>0.63636363636363646</v>
       </c>
       <c r="R47" t="s">
@@ -5847,61 +5854,77 @@
         <v>0.65055125539461511</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C57" s="81" t="s">
+    <row r="57" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="111">
+        <v>1</v>
+      </c>
+      <c r="C57" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="113">
+        <f>0.0291+5+1.74</f>
+        <v>6.7690999999999999</v>
+      </c>
+      <c r="K57" s="32"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C58" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I58" s="62">
         <v>1.74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62">
-        <v>13.8</v>
-      </c>
-      <c r="E62" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63">
+        <v>13.8</v>
+      </c>
+      <c r="E63" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>34</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>10.4</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>83</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E64" s="10"/>
-      <c r="J64" t="s">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E65" s="10"/>
+      <c r="J65" t="s">
         <v>44</v>
       </c>
-      <c r="K64" s="32">
+      <c r="K65" s="32">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J65" t="s">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
         <v>45</v>
       </c>
-      <c r="K65" s="32">
+      <c r="K66" s="32">
         <v>52.5</v>
       </c>
     </row>
@@ -6610,6 +6633,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000BCCB70FC18AB44DA8019EE3760BA1E3" ma:contentTypeVersion="" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="e3c9c0fa09a51275329b5bb4e82d78bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a2020c7b-4bfd-4e3f-89a1-c32d609ad611" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2163d055c27b1de83b1b077f523bdce" ns2:_="">
     <xsd:import namespace="a2020c7b-4bfd-4e3f-89a1-c32d609ad611"/>
@@ -6749,22 +6781,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CC173D8-7D0D-4216-A0CE-B5ADD99E38B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAA11DC4-0CA7-44EF-9201-C516F66A4FF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6782,7 +6813,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA3D6B05-2260-4773-AB7B-4598BB5204AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -6796,12 +6827,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CC173D8-7D0D-4216-A0CE-B5ADD99E38B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>